--- a/Notarius/Zapis.xlsx
+++ b/Notarius/Zapis.xlsx
@@ -422,6 +422,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>-</author>
+  </authors>
+  <commentList>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1011,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1036,8 +1081,8 @@
     <col width="12.21875" customWidth="1" style="27" min="10" max="10"/>
     <col width="14.6640625" customWidth="1" style="27" min="11" max="11"/>
     <col width="14" customWidth="1" style="27" min="12" max="12"/>
-    <col width="8.88671875" customWidth="1" style="27" min="13" max="16"/>
-    <col width="8.88671875" customWidth="1" style="27" min="17" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="27" min="13" max="17"/>
+    <col width="8.88671875" customWidth="1" style="27" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="24" thickBot="1">
@@ -1228,7 +1273,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L4" s="30" t="n"/>
+      <c r="L4" s="30" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="18" customHeight="1" s="19">
       <c r="A5" s="28" t="n">
@@ -1318,7 +1367,11 @@
       <c r="A8" s="28" t="n">
         <v>0.5416666666666666</v>
       </c>
-      <c r="B8" s="30" t="n"/>
+      <c r="B8" s="30" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
       <c r="C8" s="31" t="n"/>
       <c r="D8" s="31" t="n"/>
       <c r="E8" s="30" t="n"/>
@@ -1443,7 +1496,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I11" s="30" t="n"/>
+      <c r="I11" s="30" t="inlineStr">
+        <is>
+          <t>Заявление</t>
+        </is>
+      </c>
       <c r="J11" s="29" t="inlineStr">
         <is>
           <t>-</t>
@@ -1464,7 +1521,11 @@
       <c r="A12" s="28" t="n">
         <v>0.7083333333333334</v>
       </c>
-      <c r="B12" s="30" t="n"/>
+      <c r="B12" s="30" t="inlineStr">
+        <is>
+          <t>Доверенность</t>
+        </is>
+      </c>
       <c r="C12" s="29" t="inlineStr">
         <is>
           <t>-</t>
@@ -1755,8 +1816,16 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C18" s="30" t="n"/>
-      <c r="D18" s="30" t="n"/>
+      <c r="C18" s="30" t="inlineStr">
+        <is>
+          <t>Завещание</t>
+        </is>
+      </c>
+      <c r="D18" s="30" t="inlineStr">
+        <is>
+          <t>Заявление</t>
+        </is>
+      </c>
       <c r="E18" s="29" t="inlineStr">
         <is>
           <t>-</t>
@@ -1818,7 +1887,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F20" s="30" t="n"/>
+      <c r="F20" s="30" t="inlineStr">
+        <is>
+          <t>Заявление</t>
+        </is>
+      </c>
       <c r="G20" s="30" t="n"/>
       <c r="H20" s="30" t="n"/>
       <c r="I20" s="30" t="n"/>
@@ -2073,6 +2146,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/Notarius/Zapis.xlsx
+++ b/Notarius/Zapis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Март" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="Май" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Пользователь Asus - Личное представление" guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="12"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
@@ -35,147 +38,7 @@
     <author>-</author>
   </authors>
   <commentList>
-    <comment ref="L4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F33" authorId="0" shapeId="0">
+    <comment ref="L33" authorId="0" guid="{EFA810FB-22D7-4584-BB85-FF0AFE509E35}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +62,7 @@
     <author>-</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" guid="{8CD19CCE-FFC8-4A9E-B901-6BAF837B49F5}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,91 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Alena  375298991523</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D17" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" guid="{05FE9A48-B970-4BD2-96B1-71395E320368}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="31">
   <si>
     <t>13.00-19.00</t>
   </si>
@@ -369,38 +148,46 @@
     <t>8.00-14.00</t>
   </si>
   <si>
-    <t>Согласие</t>
-  </si>
-  <si>
-    <t>Заявление</t>
-  </si>
-  <si>
-    <t>Доверенность</t>
-  </si>
-  <si>
     <t>Кокалевская</t>
   </si>
   <si>
     <t>27.04.2023 четверг</t>
   </si>
   <si>
-    <t>Завещание</t>
+    <t>28.04.2023 пятница</t>
   </si>
   <si>
-    <t>28.04.2023 пятница</t>
+    <t>Заявление</t>
+  </si>
+  <si>
+    <t>29.04.2023 субббота</t>
+  </si>
+  <si>
+    <t>13:00-19:00</t>
+  </si>
+  <si>
+    <t>8:00-14:00</t>
+  </si>
+  <si>
+    <t>10:00-17:00</t>
+  </si>
+  <si>
+    <t>30.04.2023 воскресенье</t>
   </si>
   <si>
     <t>01.05.2023 понедельник</t>
   </si>
   <si>
-    <t>‼
-05.05.2023</t>
+    <t>Вибирайте</t>
   </si>
   <si>
-    <t>Консультация</t>
+    <t>Согласие</t>
   </si>
   <si>
     <t>02.05.2023 вторник</t>
+  </si>
+  <si>
+    <t>выходной</t>
   </si>
 </sst>
 </file>
@@ -673,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -713,9 +500,6 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -731,15 +515,26 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -755,6 +550,140 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{47AAA534-E200-4A04-B782-B68CE9169C5B}" diskRevisions="1" revisionId="7" version="2">
+  <header guid="{B74C4719-3A2A-4BFE-AC18-CD6F46B55B2E}" dateTime="2023-04-30T20:46:45" maxSheetId="13" userName="Пользователь Asus" r:id="rId1">
+    <sheetIdMap count="12">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{47AAA534-E200-4A04-B782-B68CE9169C5B}" dateTime="2023-04-30T20:47:24" maxSheetId="13" userName="Пользователь Asus" r:id="rId2" minRId="1" maxRId="7">
+    <sheetIdMap count="12">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="12">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>13.00-19.00</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="12">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>13.00-19.00</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="12">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>10.00-17.00</t>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="12">
+    <oc r="H2" t="inlineStr">
+      <is>
+        <t>8.00-14.00</t>
+      </is>
+    </oc>
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="12">
+    <oc r="I2" t="inlineStr">
+      <is>
+        <t>13.00-19.00</t>
+      </is>
+    </oc>
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="12">
+    <oc r="J2" t="inlineStr">
+      <is>
+        <t>8.00-14.00</t>
+      </is>
+    </oc>
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="12">
+    <oc r="K2" t="inlineStr">
+      <is>
+        <t>10.00-17.00</t>
+      </is>
+    </oc>
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>выходной</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1230,6 +1159,13 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}">
+      <selection activeCell="C8" sqref="C8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1243,6 +1179,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1257,6 +1198,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}">
+      <selection activeCell="M26" sqref="M26:N26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1265,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1283,8 +1230,8 @@
     <col min="10" max="10" width="12.21875" style="27" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" style="27" customWidth="1"/>
     <col min="12" max="12" width="14" style="27" customWidth="1"/>
-    <col min="13" max="20" width="8.88671875" style="27" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="27"/>
+    <col min="13" max="26" width="8.88671875" style="27" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="24" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1325,10 +1272,10 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>16</v>
@@ -1337,25 +1284,25 @@
         <v>16</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>16</v>
@@ -1365,171 +1312,165 @@
       <c r="A3" s="28">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>18</v>
-      </c>
+      <c r="B3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>0.375</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="30"/>
+      <c r="B4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="B5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="B6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>0.5</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="B7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="38" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1537,29 +1478,27 @@
       <c r="A10" s="28">
         <v>0.625</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="38" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1567,33 +1506,31 @@
       <c r="A11" s="28">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="38" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1601,31 +1538,31 @@
       <c r="A12" s="28">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="38" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1633,73 +1570,73 @@
       <c r="A13" s="28">
         <v>0.75</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="38" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="33" t="s">
+      <c r="F14" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
-        <v>27</v>
+      <c r="A15" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>0</v>
@@ -1739,163 +1676,161 @@
       <c r="A16" s="28">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="30"/>
+      <c r="B16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
         <v>0.375</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="30"/>
+      <c r="B17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="B18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="B19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>0.5</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="B20" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="38" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1903,27 +1838,27 @@
       <c r="A23" s="28">
         <v>0.625</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="38" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1931,31 +1866,31 @@
       <c r="A24" s="28">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="38" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1963,67 +1898,73 @@
       <c r="A25" s="28">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" s="38" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="35">
+      <c r="A26" s="34">
         <v>0.75</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="39" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="37" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}">
+      <selection activeCell="G17" sqref="G17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -2031,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2051,8 +1992,8 @@
     <col min="10" max="10" width="12.21875" style="27" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" style="27" customWidth="1"/>
     <col min="12" max="12" width="14" style="27" customWidth="1"/>
-    <col min="13" max="20" width="8.88671875" style="27" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="27"/>
+    <col min="13" max="26" width="8.88671875" style="27" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="24" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2133,169 +2074,161 @@
       <c r="A3" s="28">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="30"/>
+      <c r="B3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>0.375</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>17</v>
-      </c>
+      <c r="B4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30" t="s">
-        <v>17</v>
-      </c>
+      <c r="B5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="B6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>0.5</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="B7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B9" s="30">
-        <v>123</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="29" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2303,27 +2236,27 @@
       <c r="A10" s="28">
         <v>0.625</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="29" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2331,33 +2264,31 @@
       <c r="A11" s="28">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="29" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2365,33 +2296,31 @@
       <c r="A12" s="28">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="29" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2399,73 +2328,73 @@
       <c r="A13" s="28">
         <v>0.75</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="29" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="33" t="s">
+      <c r="F14" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
-        <v>21</v>
+      <c r="A15" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>0</v>
@@ -2505,167 +2434,161 @@
       <c r="A16" s="28">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="30"/>
+      <c r="B16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
         <v>0.375</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="30"/>
+      <c r="B17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="B18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="B19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>0.5</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="B20" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="29" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2673,27 +2596,27 @@
       <c r="A23" s="28">
         <v>0.625</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="29" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2701,31 +2624,31 @@
       <c r="A24" s="28">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="29" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2733,305 +2656,301 @@
       <c r="A25" s="28">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" s="29" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="35">
+      <c r="A26" s="34">
         <v>0.75</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="37" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="33" t="s">
+      <c r="F27" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="K27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="L28" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28">
+      <c r="A29" s="39">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="30"/>
+      <c r="B29" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="28">
         <v>0.375</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L30" s="30"/>
+      <c r="B30" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+      <c r="B31" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+      <c r="B32" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28">
         <v>0.5</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="B33" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="28">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="28">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="29" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3039,27 +2958,27 @@
       <c r="A36" s="28">
         <v>0.625</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="29" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3067,31 +2986,31 @@
       <c r="A37" s="28">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="30"/>
-      <c r="K37" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L37" s="29" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="29"/>
+      <c r="K37" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L37" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3099,46 +3018,46 @@
       <c r="A38" s="28">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="30"/>
-      <c r="K38" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="29" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="29"/>
+      <c r="K38" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="35">
+      <c r="A39" s="34">
         <v>0.75</v>
       </c>
-      <c r="B39" s="36"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="37" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="36"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="37" t="s">
         <v>3</v>
       </c>
@@ -3151,7 +3070,7 @@
       <c r="I39" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J39" s="36"/>
+      <c r="J39" s="35"/>
       <c r="K39" s="37" t="s">
         <v>3</v>
       </c>
@@ -3159,7 +3078,426 @@
         <v>3</v>
       </c>
     </row>
+    <row r="40" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="39">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="41"/>
+    </row>
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="29"/>
+    </row>
+    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="28">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+    </row>
+    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="28">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+    </row>
+    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="28">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
+    </row>
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="28">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="28">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="29"/>
+      <c r="F50" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="29"/>
+      <c r="K50" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="28">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="29"/>
+      <c r="F51" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="29"/>
+      <c r="K51" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="35"/>
+      <c r="F52" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="35"/>
+      <c r="K52" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="42"/>
+      <c r="B53" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+    </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}" topLeftCell="A46">
+      <selection activeCell="H64" sqref="H64"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -3174,6 +3512,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3186,6 +3529,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3198,6 +3546,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3210,6 +3563,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3222,6 +3580,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3234,6 +3597,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3246,6 +3614,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{B01096C9-E190-45D3-BDE5-13A9DFB2E6CE}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Notarius/Zapis.xlsx
+++ b/Notarius/Zapis.xlsx
@@ -475,12 +475,7 @@
     <author>-</author>
   </authors>
   <commentList>
-    <comment ref="L12" authorId="0" shapeId="0">
-      <text>
-        <t>Alena  375298991523</t>
-      </text>
-    </comment>
-    <comment ref="B114" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <t>Alena  375298991523</t>
       </text>
@@ -1298,7 +1293,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L4" s="45" t="n"/>
+      <c r="L4" s="45" t="inlineStr">
+        <is>
+          <t>Заявление</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="18" customHeight="1" s="19">
       <c r="A5" s="28" t="n">
@@ -1666,11 +1665,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L12" s="45" t="inlineStr">
-        <is>
-          <t>Согласие</t>
-        </is>
-      </c>
+      <c r="L12" s="45" t="n"/>
     </row>
     <row r="13" ht="18" customHeight="1" s="19">
       <c r="A13" s="28" t="n">
@@ -5684,11 +5679,7 @@
       <c r="A114" s="28" t="n">
         <v>0.625</v>
       </c>
-      <c r="B114" s="45" t="inlineStr">
-        <is>
-          <t>Заявление</t>
-        </is>
-      </c>
+      <c r="B114" s="45" t="n"/>
       <c r="C114" s="34" t="inlineStr">
         <is>
           <t>-</t>

--- a/Notarius/Zapis.xlsx
+++ b/Notarius/Zapis.xlsx
@@ -469,26 +469,6 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>-</author>
-  </authors>
-  <commentList>
-    <comment ref="L4" authorId="0" shapeId="0">
-      <text>
-        <t>Alena  375298991523</t>
-      </text>
-    </comment>
-    <comment ref="B133" authorId="0" shapeId="0">
-      <text>
-        <t>Alena  375298991523</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -1058,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1293,11 +1273,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L4" s="45" t="inlineStr">
-        <is>
-          <t>Заявление</t>
-        </is>
-      </c>
+      <c r="L4" s="45" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1" s="19">
       <c r="A5" s="28" t="n">
@@ -6499,11 +6475,7 @@
       <c r="A133" s="28" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="B133" s="44" t="inlineStr">
-        <is>
-          <t>Согласие</t>
-        </is>
-      </c>
+      <c r="B133" s="44" t="n"/>
       <c r="C133" s="34" t="inlineStr">
         <is>
           <t>-</t>
@@ -6769,7 +6741,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/Notarius/Zapis.xlsx
+++ b/Notarius/Zapis.xlsx
@@ -469,6 +469,46 @@
 </comments>
 </file>
 
+<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>-</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="L25" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0">
+      <text>
+        <t>80805 Наталья 375292193773</t>
+      </text>
+    </comment>
+    <comment ref="F28" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0" shapeId="0">
+      <text>
+        <t>Александр Абдула 79605887382</t>
+      </text>
+    </comment>
+    <comment ref="B112" authorId="0" shapeId="0">
+      <text>
+        <t>Александр Абдула 79605887382</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -1038,15 +1078,15 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
@@ -1054,7 +1094,7 @@
     <col width="15.88671875" customWidth="1" style="27" min="1" max="1"/>
     <col width="12.33203125" customWidth="1" style="27" min="2" max="2"/>
     <col width="13" customWidth="1" style="27" min="3" max="3"/>
-    <col width="11.109375" customWidth="1" style="27" min="4" max="4"/>
+    <col width="14.109375" customWidth="1" style="27" min="4" max="4"/>
     <col width="13.5546875" customWidth="1" style="27" min="5" max="5"/>
     <col width="15.77734375" customWidth="1" style="27" min="6" max="6"/>
     <col width="12.21875" customWidth="1" style="27" min="7" max="7"/>
@@ -1063,8 +1103,8 @@
     <col width="12.21875" customWidth="1" style="27" min="10" max="10"/>
     <col width="14.6640625" customWidth="1" style="27" min="11" max="11"/>
     <col width="14" customWidth="1" style="27" min="12" max="12"/>
-    <col width="8.88671875" customWidth="1" style="27" min="13" max="30"/>
-    <col width="8.88671875" customWidth="1" style="27" min="31" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="27" min="13" max="34"/>
+    <col width="8.88671875" customWidth="1" style="27" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="24" thickBot="1">
@@ -1196,7 +1236,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C3" s="45" t="n"/>
+      <c r="C3" s="45" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
       <c r="D3" s="45" t="n"/>
       <c r="E3" s="34" t="inlineStr">
         <is>
@@ -1475,7 +1519,7 @@
       </c>
       <c r="F9" s="30" t="inlineStr">
         <is>
-          <t>Кокалевская</t>
+          <t>Ковалевская</t>
         </is>
       </c>
       <c r="G9" s="30" t="inlineStr">
@@ -1991,7 +2035,7 @@
       </c>
       <c r="F22" s="30" t="inlineStr">
         <is>
-          <t>Кокалевская</t>
+          <t>Ковалевская</t>
         </is>
       </c>
       <c r="G22" s="30" t="inlineStr">
@@ -2157,7 +2201,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L25" s="45" t="n"/>
+      <c r="L25" s="45" t="inlineStr">
+        <is>
+          <t>Доверенность</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="18" customHeight="1" s="19">
       <c r="A26" s="28" t="n">
@@ -2203,7 +2251,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F27" s="45" t="n"/>
+      <c r="F27" s="45" t="inlineStr">
+        <is>
+          <t>Доверенность</t>
+        </is>
+      </c>
       <c r="G27" s="45" t="n"/>
       <c r="H27" s="45" t="n"/>
       <c r="I27" s="45" t="n"/>
@@ -2231,7 +2283,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F28" s="45" t="n"/>
+      <c r="F28" s="45" t="inlineStr">
+        <is>
+          <t>Заявление</t>
+        </is>
+      </c>
       <c r="G28" s="45" t="n"/>
       <c r="H28" s="45" t="n"/>
       <c r="I28" s="45" t="n"/>
@@ -2507,7 +2563,7 @@
       </c>
       <c r="F35" s="30" t="inlineStr">
         <is>
-          <t>Кокалевская</t>
+          <t>Ковалевская</t>
         </is>
       </c>
       <c r="G35" s="30" t="inlineStr">
@@ -2779,7 +2835,11 @@
       <c r="A43" s="28" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="B43" s="45" t="n"/>
+      <c r="B43" s="45" t="inlineStr">
+        <is>
+          <t>Доверенность</t>
+        </is>
+      </c>
       <c r="C43" s="34" t="inlineStr">
         <is>
           <t>-</t>
@@ -3023,7 +3083,7 @@
       </c>
       <c r="F48" s="30" t="inlineStr">
         <is>
-          <t>Кокалевская</t>
+          <t>Ковалевская</t>
         </is>
       </c>
       <c r="G48" s="30" t="inlineStr">
@@ -3539,7 +3599,7 @@
       </c>
       <c r="F61" s="30" t="inlineStr">
         <is>
-          <t>Кокалевская</t>
+          <t>Ковалевская</t>
         </is>
       </c>
       <c r="G61" s="30" t="inlineStr">
@@ -3851,7 +3911,7 @@
       </c>
       <c r="F69" s="30" t="inlineStr">
         <is>
-          <t>Кокалевская</t>
+          <t>Ковалевская</t>
         </is>
       </c>
       <c r="G69" s="30" t="inlineStr">
@@ -4309,9 +4369,9 @@
           <t>Шинкевич</t>
         </is>
       </c>
-      <c r="F79" s="30" t="inlineStr">
-        <is>
-          <t>Кокалевская</t>
+      <c r="F79" s="23" t="inlineStr">
+        <is>
+          <t>Ковалевская</t>
         </is>
       </c>
       <c r="G79" s="30" t="inlineStr">
@@ -4825,9 +4885,9 @@
           <t>Шинкевич</t>
         </is>
       </c>
-      <c r="F92" s="30" t="inlineStr">
-        <is>
-          <t>Кокалевская</t>
+      <c r="F92" s="23" t="inlineStr">
+        <is>
+          <t>Ковалевская</t>
         </is>
       </c>
       <c r="G92" s="30" t="inlineStr">
@@ -5599,7 +5659,11 @@
       <c r="A112" s="28" t="n">
         <v>0.5416666666666666</v>
       </c>
-      <c r="B112" s="45" t="n"/>
+      <c r="B112" s="45" t="inlineStr">
+        <is>
+          <t>Доверенность</t>
+        </is>
+      </c>
       <c r="C112" s="44" t="n"/>
       <c r="D112" s="44" t="n"/>
       <c r="E112" s="45" t="n"/>
@@ -6373,9 +6437,9 @@
           <t>Шинкевич</t>
         </is>
       </c>
-      <c r="F131" s="30" t="inlineStr">
-        <is>
-          <t>Кокалевская</t>
+      <c r="F131" s="23" t="inlineStr">
+        <is>
+          <t>Ковалевская</t>
         </is>
       </c>
       <c r="G131" s="30" t="inlineStr">
@@ -6685,9 +6749,9 @@
           <t>Шинкевич</t>
         </is>
       </c>
-      <c r="F139" s="30" t="inlineStr">
-        <is>
-          <t>Кокалевская</t>
+      <c r="F139" s="23" t="inlineStr">
+        <is>
+          <t>Ковалевская</t>
         </is>
       </c>
       <c r="G139" s="30" t="inlineStr">
@@ -6741,6 +6805,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -6770,8 +6835,8 @@
     <col width="12.21875" customWidth="1" style="27" min="10" max="10"/>
     <col width="14.6640625" customWidth="1" style="27" min="11" max="11"/>
     <col width="14" customWidth="1" style="27" min="12" max="12"/>
-    <col width="8.88671875" customWidth="1" style="27" min="13" max="30"/>
-    <col width="8.88671875" customWidth="1" style="27" min="31" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="27" min="13" max="34"/>
+    <col width="8.88671875" customWidth="1" style="27" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="24" thickBot="1">

--- a/Notarius/Zapis.xlsx
+++ b/Notarius/Zapis.xlsx
@@ -480,24 +480,19 @@
         <t>Alena  375298991523</t>
       </text>
     </comment>
-    <comment ref="L25" authorId="0" shapeId="0">
-      <text>
-        <t>Alena  375298991523</t>
-      </text>
-    </comment>
     <comment ref="F27" authorId="0" shapeId="0">
       <text>
         <t>80805 Наталья 375292193773</t>
       </text>
     </comment>
-    <comment ref="F28" authorId="0" shapeId="0">
-      <text>
-        <t>Alena  375298991523</t>
-      </text>
-    </comment>
     <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <t>Александр Абдула 79605887382</t>
+      </text>
+    </comment>
+    <comment ref="L96" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
       </text>
     </comment>
     <comment ref="B112" authorId="0" shapeId="0">
@@ -2201,11 +2196,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L25" s="45" t="inlineStr">
-        <is>
-          <t>Доверенность</t>
-        </is>
-      </c>
+      <c r="L25" s="45" t="n"/>
     </row>
     <row r="26" ht="18" customHeight="1" s="19">
       <c r="A26" s="28" t="n">
@@ -2283,11 +2274,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F28" s="45" t="inlineStr">
-        <is>
-          <t>Заявление</t>
-        </is>
-      </c>
+      <c r="F28" s="45" t="n"/>
       <c r="G28" s="45" t="n"/>
       <c r="H28" s="45" t="n"/>
       <c r="I28" s="45" t="n"/>
@@ -5081,7 +5068,11 @@
         </is>
       </c>
       <c r="K96" s="45" t="n"/>
-      <c r="L96" s="45" t="n"/>
+      <c r="L96" s="45" t="inlineStr">
+        <is>
+          <t>Консультация</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="18" customHeight="1" s="19">
       <c r="A97" s="28" t="n">

--- a/Notarius/Zapis.xlsx
+++ b/Notarius/Zapis.xlsx
@@ -500,6 +500,11 @@
         <t>Александр Абдула 79605887382</t>
       </text>
     </comment>
+    <comment ref="B126" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -6186,7 +6191,11 @@
       <c r="A126" s="28" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="B126" s="45" t="n"/>
+      <c r="B126" s="45" t="inlineStr">
+        <is>
+          <t>Заявление</t>
+        </is>
+      </c>
       <c r="C126" s="34" t="inlineStr">
         <is>
           <t>-</t>

--- a/Notarius/Zapis.xlsx
+++ b/Notarius/Zapis.xlsx
@@ -475,24 +475,89 @@
     <author>-</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="F28" authorId="0" shapeId="0">
       <text>
         <t>Alena  375298991523</t>
       </text>
     </comment>
-    <comment ref="F27" authorId="0" shapeId="0">
+    <comment ref="E42" authorId="0" shapeId="0">
+      <text>
+        <t>Олеся  375295122377</t>
+      </text>
+    </comment>
+    <comment ref="E43" authorId="0" shapeId="0">
       <text>
         <t>80805 Наталья 375292193773</t>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="E44" authorId="0" shapeId="0">
       <text>
-        <t>Александр Абдула 79605887382</t>
+        <t>80805 Наталья 375292193773</t>
       </text>
     </comment>
-    <comment ref="L96" authorId="0" shapeId="0">
+    <comment ref="E45" authorId="0" shapeId="0">
       <text>
-        <t>Alena  375298991523</t>
+        <t>80805 Наталья 375292193773</t>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="0" shapeId="0">
+      <text>
+        <t>Олеся  375295122377</t>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="0" shapeId="0">
+      <text>
+        <t>Олеся  375295122377</t>
+      </text>
+    </comment>
+    <comment ref="B66" authorId="0" shapeId="0">
+      <text>
+        <t>MarinaB  375333368912</t>
+      </text>
+    </comment>
+    <comment ref="C77" authorId="0" shapeId="0">
+      <text>
+        <t>MarinaB  375333368912</t>
+      </text>
+    </comment>
+    <comment ref="C94" authorId="0" shapeId="0">
+      <text>
+        <t>MarinaB  375333368912</t>
+      </text>
+    </comment>
+    <comment ref="C95" authorId="0" shapeId="0">
+      <text>
+        <t>MarinaB  375333368912</t>
+      </text>
+    </comment>
+    <comment ref="C96" authorId="0" shapeId="0">
+      <text>
+        <t>MarinaB  375333368912</t>
+      </text>
+    </comment>
+    <comment ref="C97" authorId="0" shapeId="0">
+      <text>
+        <t>MarinaB  375333368912</t>
+      </text>
+    </comment>
+    <comment ref="H97" authorId="0" shapeId="0">
+      <text>
+        <t>80805 Наталья 375292193773</t>
+      </text>
+    </comment>
+    <comment ref="C98" authorId="0" shapeId="0">
+      <text>
+        <t>MarinaB  375333368912</t>
+      </text>
+    </comment>
+    <comment ref="C99" authorId="0" shapeId="0">
+      <text>
+        <t>MarinaB  375333368912</t>
+      </text>
+    </comment>
+    <comment ref="E99" authorId="0" shapeId="0">
+      <text>
+        <t>MarinaB  375333368912</t>
       </text>
     </comment>
     <comment ref="B112" authorId="0" shapeId="0">
@@ -500,7 +565,12 @@
         <t>Александр Абдула 79605887382</t>
       </text>
     </comment>
-    <comment ref="B126" authorId="0" shapeId="0">
+    <comment ref="B114" authorId="0" shapeId="0">
+      <text>
+        <t>Александр Абдула 79605887382</t>
+      </text>
+    </comment>
+    <comment ref="G120" authorId="0" shapeId="0">
       <text>
         <t>Alena  375298991523</t>
       </text>
@@ -1085,8 +1155,8 @@
   </sheetPr>
   <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
@@ -1103,8 +1173,8 @@
     <col width="12.21875" customWidth="1" style="27" min="10" max="10"/>
     <col width="14.6640625" customWidth="1" style="27" min="11" max="11"/>
     <col width="14" customWidth="1" style="27" min="12" max="12"/>
-    <col width="8.88671875" customWidth="1" style="27" min="13" max="34"/>
-    <col width="8.88671875" customWidth="1" style="27" min="35" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="27" min="13" max="33"/>
+    <col width="8.88671875" customWidth="1" style="27" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="24" thickBot="1">
@@ -1236,11 +1306,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C3" s="45" t="inlineStr">
-        <is>
-          <t>Согласие</t>
-        </is>
-      </c>
+      <c r="C3" s="45" t="n"/>
       <c r="D3" s="45" t="n"/>
       <c r="E3" s="34" t="inlineStr">
         <is>
@@ -2247,11 +2313,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F27" s="45" t="inlineStr">
-        <is>
-          <t>Доверенность</t>
-        </is>
-      </c>
+      <c r="F27" s="45" t="n"/>
       <c r="G27" s="45" t="n"/>
       <c r="H27" s="45" t="n"/>
       <c r="I27" s="45" t="n"/>
@@ -2279,7 +2341,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F28" s="45" t="n"/>
+      <c r="F28" s="45" t="inlineStr">
+        <is>
+          <t>Заявление</t>
+        </is>
+      </c>
       <c r="G28" s="45" t="n"/>
       <c r="H28" s="45" t="n"/>
       <c r="I28" s="45" t="n"/>
@@ -2814,7 +2880,11 @@
       <c r="B42" s="45" t="n"/>
       <c r="C42" s="44" t="n"/>
       <c r="D42" s="44" t="n"/>
-      <c r="E42" s="45" t="n"/>
+      <c r="E42" s="45" t="inlineStr">
+        <is>
+          <t>Консультация</t>
+        </is>
+      </c>
       <c r="F42" s="45" t="n"/>
       <c r="G42" s="44" t="n"/>
       <c r="H42" s="44" t="n"/>
@@ -2827,11 +2897,7 @@
       <c r="A43" s="28" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="B43" s="45" t="inlineStr">
-        <is>
-          <t>Доверенность</t>
-        </is>
-      </c>
+      <c r="B43" s="45" t="n"/>
       <c r="C43" s="34" t="inlineStr">
         <is>
           <t>-</t>
@@ -2842,7 +2908,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E43" s="45" t="n"/>
+      <c r="E43" s="45" t="inlineStr">
+        <is>
+          <t>Заявление</t>
+        </is>
+      </c>
       <c r="F43" s="45" t="n"/>
       <c r="G43" s="34" t="inlineStr">
         <is>
@@ -2882,7 +2952,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E44" s="45" t="n"/>
+      <c r="E44" s="45" t="inlineStr">
+        <is>
+          <t>Консультация</t>
+        </is>
+      </c>
       <c r="F44" s="45" t="n"/>
       <c r="G44" s="34" t="inlineStr">
         <is>
@@ -2922,7 +2996,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E45" s="45" t="n"/>
+      <c r="E45" s="45" t="inlineStr">
+        <is>
+          <t>Доверенность</t>
+        </is>
+      </c>
       <c r="F45" s="34" t="inlineStr">
         <is>
           <t>-</t>
@@ -2970,7 +3048,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E46" s="45" t="n"/>
+      <c r="E46" s="45" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
       <c r="F46" s="34" t="inlineStr">
         <is>
           <t>-</t>
@@ -3018,7 +3100,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E47" s="33" t="n"/>
+      <c r="E47" s="33" t="inlineStr">
+        <is>
+          <t>Заявление</t>
+        </is>
+      </c>
       <c r="F47" s="35" t="inlineStr">
         <is>
           <t>-</t>
@@ -3787,7 +3873,11 @@
       <c r="A66" s="28" t="n">
         <v>0.4583333333333333</v>
       </c>
-      <c r="B66" s="44" t="n"/>
+      <c r="B66" s="44" t="inlineStr">
+        <is>
+          <t>Доверенность</t>
+        </is>
+      </c>
       <c r="C66" s="34" t="inlineStr">
         <is>
           <t>-</t>
@@ -4260,7 +4350,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C77" s="45" t="n"/>
+      <c r="C77" s="45" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
       <c r="D77" s="45" t="n"/>
       <c r="E77" s="34" t="inlineStr">
         <is>
@@ -4984,7 +5078,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C94" s="45" t="n"/>
+      <c r="C94" s="45" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
       <c r="D94" s="45" t="n"/>
       <c r="E94" s="34" t="inlineStr">
         <is>
@@ -5020,7 +5118,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C95" s="45" t="n"/>
+      <c r="C95" s="45" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
       <c r="D95" s="45" t="n"/>
       <c r="E95" s="34" t="inlineStr">
         <is>
@@ -5056,7 +5158,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C96" s="45" t="n"/>
+      <c r="C96" s="45" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
       <c r="D96" s="45" t="n"/>
       <c r="E96" s="34" t="inlineStr">
         <is>
@@ -5073,11 +5179,7 @@
         </is>
       </c>
       <c r="K96" s="45" t="n"/>
-      <c r="L96" s="45" t="inlineStr">
-        <is>
-          <t>Консультация</t>
-        </is>
-      </c>
+      <c r="L96" s="45" t="n"/>
     </row>
     <row r="97" ht="18" customHeight="1" s="19">
       <c r="A97" s="28" t="n">
@@ -5088,7 +5190,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C97" s="45" t="n"/>
+      <c r="C97" s="45" t="inlineStr">
+        <is>
+          <t>Консультация</t>
+        </is>
+      </c>
       <c r="D97" s="45" t="n"/>
       <c r="E97" s="34" t="inlineStr">
         <is>
@@ -5097,7 +5203,11 @@
       </c>
       <c r="F97" s="45" t="n"/>
       <c r="G97" s="45" t="n"/>
-      <c r="H97" s="45" t="n"/>
+      <c r="H97" s="45" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
       <c r="I97" s="45" t="n"/>
       <c r="J97" s="34" t="inlineStr">
         <is>
@@ -5116,7 +5226,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C98" s="45" t="n"/>
+      <c r="C98" s="45" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
       <c r="D98" s="45" t="n"/>
       <c r="E98" s="34" t="inlineStr">
         <is>
@@ -5140,9 +5254,17 @@
         <v>0.5416666666666666</v>
       </c>
       <c r="B99" s="45" t="n"/>
-      <c r="C99" s="44" t="n"/>
+      <c r="C99" s="44" t="inlineStr">
+        <is>
+          <t>Консультация</t>
+        </is>
+      </c>
       <c r="D99" s="44" t="n"/>
-      <c r="E99" s="45" t="n"/>
+      <c r="E99" s="45" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
       <c r="F99" s="45" t="n"/>
       <c r="G99" s="44" t="n"/>
       <c r="H99" s="44" t="n"/>
@@ -5715,7 +5837,11 @@
       <c r="A114" s="28" t="n">
         <v>0.625</v>
       </c>
-      <c r="B114" s="45" t="n"/>
+      <c r="B114" s="45" t="inlineStr">
+        <is>
+          <t>Консультация</t>
+        </is>
+      </c>
       <c r="C114" s="34" t="inlineStr">
         <is>
           <t>-</t>
@@ -6036,7 +6162,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G120" s="45" t="n"/>
+      <c r="G120" s="45" t="inlineStr">
+        <is>
+          <t>Консультация</t>
+        </is>
+      </c>
       <c r="H120" s="45" t="n"/>
       <c r="I120" s="45" t="n"/>
       <c r="J120" s="34" t="inlineStr">
@@ -6191,11 +6321,7 @@
       <c r="A126" s="28" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="B126" s="45" t="inlineStr">
-        <is>
-          <t>Заявление</t>
-        </is>
-      </c>
+      <c r="B126" s="45" t="n"/>
       <c r="C126" s="34" t="inlineStr">
         <is>
           <t>-</t>
@@ -6835,8 +6961,8 @@
     <col width="12.21875" customWidth="1" style="27" min="10" max="10"/>
     <col width="14.6640625" customWidth="1" style="27" min="11" max="11"/>
     <col width="14" customWidth="1" style="27" min="12" max="12"/>
-    <col width="8.88671875" customWidth="1" style="27" min="13" max="34"/>
-    <col width="8.88671875" customWidth="1" style="27" min="35" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="27" min="13" max="33"/>
+    <col width="8.88671875" customWidth="1" style="27" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="24" thickBot="1">

--- a/Notarius/Zapis.xlsx
+++ b/Notarius/Zapis.xlsx
@@ -560,6 +560,11 @@
         <t>MarinaB  375333368912</t>
       </text>
     </comment>
+    <comment ref="L108" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  None</t>
+      </text>
+    </comment>
     <comment ref="B112" authorId="0" shapeId="0">
       <text>
         <t>Александр Абдула 79605887382</t>
@@ -5687,7 +5692,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L108" s="45" t="n"/>
+      <c r="L108" s="45" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
     </row>
     <row r="109" ht="18" customHeight="1" s="19">
       <c r="A109" s="28" t="n">

--- a/Notarius/Zapis.xlsx
+++ b/Notarius/Zapis.xlsx
@@ -575,7 +575,12 @@
         <t>Александр Абдула 79605887382</t>
       </text>
     </comment>
-    <comment ref="G120" authorId="0" shapeId="0">
+    <comment ref="L122" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="L125" authorId="0" shapeId="0">
       <text>
         <t>Alena  375298991523</t>
       </text>
@@ -1161,7 +1166,7 @@
   <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
@@ -1178,8 +1183,8 @@
     <col width="12.21875" customWidth="1" style="27" min="10" max="10"/>
     <col width="14.6640625" customWidth="1" style="27" min="11" max="11"/>
     <col width="14" customWidth="1" style="27" min="12" max="12"/>
-    <col width="8.88671875" customWidth="1" style="27" min="13" max="33"/>
-    <col width="8.88671875" customWidth="1" style="27" min="34" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="27" min="13" max="34"/>
+    <col width="8.88671875" customWidth="1" style="27" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="24" thickBot="1">
@@ -6171,11 +6176,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G120" s="45" t="inlineStr">
-        <is>
-          <t>Консультация</t>
-        </is>
-      </c>
+      <c r="G120" s="45" t="n"/>
       <c r="H120" s="45" t="n"/>
       <c r="I120" s="45" t="n"/>
       <c r="J120" s="34" t="inlineStr">
@@ -6252,7 +6253,11 @@
         </is>
       </c>
       <c r="K122" s="45" t="n"/>
-      <c r="L122" s="45" t="n"/>
+      <c r="L122" s="45" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
     </row>
     <row r="123" ht="18" customHeight="1" s="19">
       <c r="A123" s="28" t="n">
@@ -6324,7 +6329,11 @@
       <c r="I125" s="44" t="n"/>
       <c r="J125" s="45" t="n"/>
       <c r="K125" s="45" t="n"/>
-      <c r="L125" s="44" t="n"/>
+      <c r="L125" s="44" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
     </row>
     <row r="126" ht="18" customHeight="1" s="19">
       <c r="A126" s="28" t="n">
@@ -6884,11 +6893,7 @@
           <t>Шинкевич</t>
         </is>
       </c>
-      <c r="F139" s="23" t="inlineStr">
-        <is>
-          <t>Ковалевская</t>
-        </is>
-      </c>
+      <c r="F139" s="23" t="n"/>
       <c r="G139" s="30" t="inlineStr">
         <is>
           <t>Сильченко</t>
@@ -6970,8 +6975,8 @@
     <col width="12.21875" customWidth="1" style="27" min="10" max="10"/>
     <col width="14.6640625" customWidth="1" style="27" min="11" max="11"/>
     <col width="14" customWidth="1" style="27" min="12" max="12"/>
-    <col width="8.88671875" customWidth="1" style="27" min="13" max="33"/>
-    <col width="8.88671875" customWidth="1" style="27" min="34" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="27" min="13" max="34"/>
+    <col width="8.88671875" customWidth="1" style="27" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="24" thickBot="1">

--- a/Notarius/Zapis.xlsx
+++ b/Notarius/Zapis.xlsx
@@ -575,12 +575,12 @@
         <t>Александр Абдула 79605887382</t>
       </text>
     </comment>
-    <comment ref="L122" authorId="0" shapeId="0">
+    <comment ref="C121" authorId="0" shapeId="0">
       <text>
         <t>Alena  375298991523</t>
       </text>
     </comment>
-    <comment ref="L125" authorId="0" shapeId="0">
+    <comment ref="C122" authorId="0" shapeId="0">
       <text>
         <t>Alena  375298991523</t>
       </text>
@@ -6200,7 +6200,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C121" s="45" t="n"/>
+      <c r="C121" s="45" t="inlineStr">
+        <is>
+          <t>Заявление</t>
+        </is>
+      </c>
       <c r="D121" s="45" t="n"/>
       <c r="E121" s="34" t="inlineStr">
         <is>
@@ -6236,7 +6240,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C122" s="45" t="n"/>
+      <c r="C122" s="45" t="inlineStr">
+        <is>
+          <t>Завещание</t>
+        </is>
+      </c>
       <c r="D122" s="45" t="n"/>
       <c r="E122" s="34" t="inlineStr">
         <is>
@@ -6253,11 +6261,7 @@
         </is>
       </c>
       <c r="K122" s="45" t="n"/>
-      <c r="L122" s="45" t="inlineStr">
-        <is>
-          <t>Согласие</t>
-        </is>
-      </c>
+      <c r="L122" s="45" t="n"/>
     </row>
     <row r="123" ht="18" customHeight="1" s="19">
       <c r="A123" s="28" t="n">
@@ -6329,11 +6333,7 @@
       <c r="I125" s="44" t="n"/>
       <c r="J125" s="45" t="n"/>
       <c r="K125" s="45" t="n"/>
-      <c r="L125" s="44" t="inlineStr">
-        <is>
-          <t>Согласие</t>
-        </is>
-      </c>
+      <c r="L125" s="44" t="n"/>
     </row>
     <row r="126" ht="18" customHeight="1" s="19">
       <c r="A126" s="28" t="n">
